--- a/longitude - latitude/newtonuv_mozek-toponyma.xlsx
+++ b/longitude - latitude/newtonuv_mozek-toponyma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\korpus_prozy\korpusprozy\longitude - latitude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E6C6EB-8B90-4E6D-9618-7C7B7585B52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6881D20-3CBE-45C7-97D5-B2C935D407E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="168" windowWidth="6744" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1481,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/longitude - latitude/newtonuv_mozek-toponyma.xlsx
+++ b/longitude - latitude/newtonuv_mozek-toponyma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\korpus_prozy\korpusprozy\longitude - latitude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6881D20-3CBE-45C7-97D5-B2C935D407E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8805D0-EA80-4335-8BDE-56F1686AA507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="168" windowWidth="6744" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="360">
   <si>
     <t>longitude</t>
   </si>
@@ -1097,6 +1097,9 @@
   </si>
   <si>
     <t>9.1750717</t>
+  </si>
+  <si>
+    <t>musím najít vhodný obrázek</t>
   </si>
 </sst>
 </file>
@@ -1481,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1649,6 +1652,9 @@
       <c r="C14" t="s">
         <v>106</v>
       </c>
+      <c r="D14" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">

--- a/longitude - latitude/newtonuv_mozek-toponyma.xlsx
+++ b/longitude - latitude/newtonuv_mozek-toponyma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\korpus_prozy\korpusprozy\longitude - latitude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8805D0-EA80-4335-8BDE-56F1686AA507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D077BF4-0A55-44CE-8C16-D7BE297E04BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="168" windowWidth="6744" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1485,7 +1485,7 @@
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/longitude - latitude/newtonuv_mozek-toponyma.xlsx
+++ b/longitude - latitude/newtonuv_mozek-toponyma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\korpus_prozy\korpusprozy\longitude - latitude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D077BF4-0A55-44CE-8C16-D7BE297E04BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D788F09-DCFF-414A-9856-542ECEFD04D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="168" windowWidth="6744" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="361">
   <si>
     <t>longitude</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Komárno</t>
   </si>
   <si>
-    <t>Sered</t>
-  </si>
-  <si>
     <t>Paříž</t>
   </si>
   <si>
@@ -346,9 +343,6 @@
     <t>20.5105836</t>
   </si>
   <si>
-    <t>50.5608851</t>
-  </si>
-  <si>
     <t>15.9130498</t>
   </si>
   <si>
@@ -496,9 +490,6 @@
     <t>48.2889031</t>
   </si>
   <si>
-    <t>17.7308808</t>
-  </si>
-  <si>
     <t>již v gisu</t>
   </si>
   <si>
@@ -523,9 +514,6 @@
     <t>myšleno maďarské město Vác</t>
   </si>
   <si>
-    <t>nenalezeno, někde v blízkosti řeky Hron</t>
-  </si>
-  <si>
     <t>47.6015289</t>
   </si>
   <si>
@@ -1100,6 +1088,21 @@
   </si>
   <si>
     <t>musím najít vhodný obrázek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Pered</t>
+  </si>
+  <si>
+    <t>17.846694</t>
+  </si>
+  <si>
+    <t>v textu Sered; nejspíše chyba OCR, v Seredu se žádná bitva ve 40. letech 19. století nestala</t>
+  </si>
+  <si>
+    <t>tak nakonec nalezeno, souřadnice jsou v gisu</t>
   </si>
 </sst>
 </file>
@@ -1484,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1506,10 +1509,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1523,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1537,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1545,10 +1548,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1556,10 +1559,10 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1567,10 +1570,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1578,10 +1581,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1589,10 +1592,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1600,10 +1603,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1611,21 +1614,21 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1639,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1661,10 +1664,10 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1672,10 +1675,10 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1683,43 +1686,43 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1727,24 +1730,24 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1752,10 +1755,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1763,46 +1766,46 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
         <v>132</v>
       </c>
-      <c r="B25" t="s">
-        <v>134</v>
-      </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
         <v>135</v>
       </c>
-      <c r="B26" t="s">
-        <v>137</v>
-      </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
         <v>138</v>
       </c>
-      <c r="B27" t="s">
-        <v>140</v>
-      </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1810,27 +1813,27 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
         <v>144</v>
       </c>
-      <c r="B29" t="s">
-        <v>146</v>
-      </c>
       <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
         <v>145</v>
-      </c>
-      <c r="D29" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1838,21 +1841,21 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1866,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1874,26 +1877,29 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>358</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="D34" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1902,43 +1908,43 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1952,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1960,32 +1966,32 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1993,21 +1999,21 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2015,26 +2021,26 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2043,12 +2049,12 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2057,51 +2063,51 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B50" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B51" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2110,32 +2116,32 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C54" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2143,13 +2149,13 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C55" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2157,15 +2163,15 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2174,51 +2180,51 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B58" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B59" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C60" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2226,10 +2232,10 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2237,115 +2243,115 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C65" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C68" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C69" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B70" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C72" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2353,68 +2359,68 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C73" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D73" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B74" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C75" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C76" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C77" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C78" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2422,43 +2428,43 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C79" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B81" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2466,10 +2472,10 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C83" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2477,10 +2483,10 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C84" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2488,10 +2494,10 @@
         <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C85" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2499,109 +2505,109 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C86" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B87" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C87" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C88" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C89" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C90" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B91" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C91" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B92" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C92" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B93" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C93" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B94" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B95" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C95" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2615,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2629,34 +2635,34 @@
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B98" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C98" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B99" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C99" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2665,56 +2671,56 @@
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C101" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B102" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C102" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B103" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C103" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C104" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2723,35 +2729,35 @@
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B106" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C106" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D106" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B107" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C107" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D107" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2765,18 +2771,18 @@
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B109" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C109" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2784,109 +2790,109 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C110" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D110" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B111" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C111" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B112" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C112" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B113" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C113" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D113" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B114" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C114" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B115" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C115" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B116" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C116" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B117" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C117" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B118" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C118" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2895,12 +2901,12 @@
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2909,43 +2915,43 @@
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B121" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C121" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D121" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B122" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C122" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B123" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C123" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2953,10 +2959,10 @@
         <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C124" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/longitude - latitude/newtonuv_mozek-toponyma.xlsx
+++ b/longitude - latitude/newtonuv_mozek-toponyma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\korpus_prozy\korpusprozy\longitude - latitude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D788F09-DCFF-414A-9856-542ECEFD04D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904073A5-B6D8-4B2E-B824-A51B72706023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="168" windowWidth="6744" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/longitude - latitude/newtonuv_mozek-toponyma.xlsx
+++ b/longitude - latitude/newtonuv_mozek-toponyma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\korpus_prozy\korpusprozy\longitude - latitude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904073A5-B6D8-4B2E-B824-A51B72706023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540AC2AE-1AF8-40F7-8954-EDBDDF99DA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="168" windowWidth="6744" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/longitude - latitude/newtonuv_mozek-toponyma.xlsx
+++ b/longitude - latitude/newtonuv_mozek-toponyma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\korpus_prozy\korpusprozy\longitude - latitude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540AC2AE-1AF8-40F7-8954-EDBDDF99DA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F7E96D-6486-4ACF-92E0-6D3496072341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="168" windowWidth="6744" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,9 +190,6 @@
     <t>Budyšín</t>
   </si>
   <si>
-    <t>Berezin</t>
-  </si>
-  <si>
     <t>Moskva</t>
   </si>
   <si>
@@ -703,21 +700,6 @@
     <t>14.4275733</t>
   </si>
   <si>
-    <t>53.7555456</t>
-  </si>
-  <si>
-    <t>28.9285403</t>
-  </si>
-  <si>
-    <t>51.5464781</t>
-  </si>
-  <si>
-    <t>33.6634789</t>
-  </si>
-  <si>
-    <t>Jaroslavec</t>
-  </si>
-  <si>
     <t>55.7505411</t>
   </si>
   <si>
@@ -1103,6 +1085,24 @@
   </si>
   <si>
     <t>tak nakonec nalezeno, souřadnice jsou v gisu</t>
+  </si>
+  <si>
+    <t>54.324722</t>
+  </si>
+  <si>
+    <t>28.354531</t>
+  </si>
+  <si>
+    <t>Berezina</t>
+  </si>
+  <si>
+    <t>Malojaroslavec</t>
+  </si>
+  <si>
+    <t>55.0121808</t>
+  </si>
+  <si>
+    <t>36.4590244</t>
   </si>
 </sst>
 </file>
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1509,10 +1509,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1548,10 +1548,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1559,10 +1559,10 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1570,10 +1570,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1581,10 +1581,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1592,10 +1592,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1603,10 +1603,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1614,21 +1614,21 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1642,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1664,10 +1664,10 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1675,10 +1675,10 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1686,43 +1686,43 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
         <v>127</v>
       </c>
-      <c r="B19" t="s">
-        <v>128</v>
-      </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
         <v>116</v>
-      </c>
-      <c r="B20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1730,24 +1730,24 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
         <v>121</v>
       </c>
-      <c r="B22" t="s">
-        <v>122</v>
-      </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1755,10 +1755,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1766,46 +1766,46 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
         <v>130</v>
-      </c>
-      <c r="B25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
         <v>133</v>
-      </c>
-      <c r="B26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
         <v>136</v>
       </c>
-      <c r="B27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1813,27 +1813,27 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="s">
         <v>142</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>144</v>
-      </c>
-      <c r="C29" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1841,21 +1841,21 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
         <v>149</v>
       </c>
-      <c r="B31" t="s">
-        <v>150</v>
-      </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1877,24 +1877,24 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B34" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1916,10 +1916,10 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1927,10 +1927,10 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1938,13 +1938,13 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" t="s">
         <v>162</v>
-      </c>
-      <c r="C38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1966,10 +1966,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1977,10 +1977,10 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1988,10 +1988,10 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1999,21 +1999,21 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2021,21 +2021,21 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" t="s">
         <v>178</v>
       </c>
-      <c r="B46" t="s">
-        <v>179</v>
-      </c>
       <c r="C46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2071,38 +2071,38 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" t="s">
         <v>185</v>
-      </c>
-      <c r="B50" t="s">
-        <v>184</v>
-      </c>
-      <c r="C50" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" t="s">
         <v>189</v>
-      </c>
-      <c r="B51" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" t="s">
-        <v>187</v>
-      </c>
-      <c r="D51" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2124,24 +2124,24 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" t="s">
         <v>191</v>
-      </c>
-      <c r="D53" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2149,13 +2149,13 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" t="s">
         <v>198</v>
-      </c>
-      <c r="C55" t="s">
-        <v>197</v>
-      </c>
-      <c r="D55" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2163,10 +2163,10 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2180,29 +2180,29 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2210,21 +2210,21 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2232,10 +2232,10 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2243,35 +2243,35 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B64" t="s">
         <v>218</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>219</v>
-      </c>
-      <c r="C64" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" t="s">
         <v>222</v>
-      </c>
-      <c r="C65" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2279,79 +2279,79 @@
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>56</v>
+        <v>357</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>356</v>
       </c>
       <c r="C67" t="s">
-        <v>227</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>231</v>
+        <v>358</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C69" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C70" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B71" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D71" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B72" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2359,68 +2359,68 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C73" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D73" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B74" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B75" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C76" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C78" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2428,43 +2428,43 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C79" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C80" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C82" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2472,10 +2472,10 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C83" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2483,10 +2483,10 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C84" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2494,10 +2494,10 @@
         <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C85" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2505,109 +2505,109 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C86" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B87" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C87" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C88" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B89" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C89" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B90" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C90" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B91" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C91" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B92" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C92" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B93" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C93" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B94" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C94" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B95" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C95" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2635,34 +2635,34 @@
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C98" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B99" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2671,56 +2671,56 @@
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B101" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C101" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B102" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C102" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C103" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B104" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C104" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2729,35 +2729,35 @@
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B106" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C106" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D106" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B107" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C107" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D107" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2771,18 +2771,18 @@
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B109" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C109" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2790,109 +2790,109 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C110" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D110" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B111" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C111" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B112" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C112" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B113" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C113" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D113" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B114" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C114" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B115" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C115" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B116" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C116" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B117" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C117" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B118" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C118" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2901,12 +2901,12 @@
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2915,43 +2915,43 @@
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B121" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C121" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D121" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C122" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B123" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C123" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2959,10 +2959,10 @@
         <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C124" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/longitude - latitude/newtonuv_mozek-toponyma.xlsx
+++ b/longitude - latitude/newtonuv_mozek-toponyma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\korpus_prozy\korpusprozy\longitude - latitude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F7E96D-6486-4ACF-92E0-6D3496072341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84397AEE-84A8-4CF3-A6C4-A770595735F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="168" windowWidth="6744" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="358">
   <si>
     <t>longitude</t>
   </si>
@@ -752,15 +752,6 @@
   </si>
   <si>
     <t>Jena</t>
-  </si>
-  <si>
-    <t>51.1022150</t>
-  </si>
-  <si>
-    <t>11.5952089</t>
-  </si>
-  <si>
-    <t>Auerstedt</t>
   </si>
   <si>
     <t>49.1532550</t>
@@ -1485,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1656,7 +1647,7 @@
         <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1667,7 +1658,7 @@
         <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1885,16 +1876,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B34" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C34" t="s">
         <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1958,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2287,24 +2278,24 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B67" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C67" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B68" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C68" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2380,8 +2371,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>246</v>
+      <c r="A75" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B75" t="s">
         <v>245</v>
@@ -2392,117 +2383,117 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" t="s">
         <v>252</v>
-      </c>
-      <c r="C78" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" t="s">
-        <v>254</v>
-      </c>
-      <c r="C79" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80" t="s">
         <v>257</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>256</v>
       </c>
-      <c r="C80" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>259</v>
+      </c>
+      <c r="C81" t="s">
         <v>258</v>
-      </c>
-      <c r="B81" t="s">
-        <v>260</v>
-      </c>
-      <c r="C81" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C82" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C83" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C84" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B85" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C85" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B86" t="s">
         <v>270</v>
@@ -2512,77 +2503,77 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" t="s">
         <v>271</v>
-      </c>
-      <c r="B87" t="s">
-        <v>273</v>
-      </c>
-      <c r="C87" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B89" t="s">
+        <v>276</v>
+      </c>
+      <c r="C89" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B90" t="s">
+        <v>278</v>
+      </c>
+      <c r="C90" t="s">
         <v>277</v>
-      </c>
-      <c r="C89" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B90" t="s">
-        <v>279</v>
-      </c>
-      <c r="C90" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B91" t="s">
         <v>282</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>281</v>
-      </c>
-      <c r="C91" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" t="s">
         <v>283</v>
-      </c>
-      <c r="B92" t="s">
-        <v>285</v>
-      </c>
-      <c r="C92" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" t="s">
         <v>288</v>
-      </c>
-      <c r="B93" t="s">
-        <v>287</v>
       </c>
       <c r="C93" t="s">
         <v>286</v>
@@ -2590,29 +2581,32 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B94" t="s">
         <v>291</v>
       </c>
       <c r="C94" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B95" t="s">
-        <v>294</v>
-      </c>
-      <c r="C95" t="s">
-        <v>293</v>
+      <c r="A95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2620,27 +2614,24 @@
       <c r="C96">
         <v>0</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97" t="s">
-        <v>155</v>
+      <c r="A97" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B97" t="s">
+        <v>293</v>
+      </c>
+      <c r="C97" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>297</v>
+      <c r="A98" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B98" t="s">
         <v>296</v>
@@ -2651,32 +2642,32 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B99" t="s">
-        <v>299</v>
-      </c>
-      <c r="C99" t="s">
-        <v>298</v>
+        <v>81</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100" t="s">
-        <v>155</v>
+        <v>82</v>
+      </c>
+      <c r="B100" t="s">
+        <v>298</v>
+      </c>
+      <c r="C100" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="B101" t="s">
         <v>301</v>
@@ -2687,107 +2678,110 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" t="s">
         <v>302</v>
-      </c>
-      <c r="B102" t="s">
-        <v>304</v>
-      </c>
-      <c r="C102" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B103" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C103" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
+      <c r="C105" t="s">
+        <v>306</v>
       </c>
       <c r="D105" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B106" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" t="s">
+        <v>310</v>
+      </c>
+      <c r="D106" t="s">
         <v>311</v>
-      </c>
-      <c r="B106" t="s">
-        <v>310</v>
-      </c>
-      <c r="C106" t="s">
-        <v>309</v>
-      </c>
-      <c r="D106" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B107" t="s">
-        <v>315</v>
-      </c>
-      <c r="C107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
         <v>313</v>
-      </c>
-      <c r="D107" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108" t="s">
-        <v>316</v>
+        <v>70</v>
+      </c>
+      <c r="B108" t="s">
+        <v>314</v>
+      </c>
+      <c r="C108" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B109" t="s">
         <v>317</v>
       </c>
       <c r="C109" t="s">
-        <v>317</v>
+        <v>315</v>
+      </c>
+      <c r="D109" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>2</v>
+      <c r="A110" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="B110" t="s">
         <v>320</v>
@@ -2795,16 +2789,13 @@
       <c r="C110" t="s">
         <v>318</v>
       </c>
-      <c r="D110" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111" t="s">
         <v>322</v>
-      </c>
-      <c r="B111" t="s">
-        <v>323</v>
       </c>
       <c r="C111" t="s">
         <v>321</v>
@@ -2812,18 +2803,21 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B112" t="s">
+        <v>324</v>
+      </c>
+      <c r="C112" t="s">
+        <v>323</v>
+      </c>
+      <c r="D112" t="s">
         <v>325</v>
-      </c>
-      <c r="C112" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B113" t="s">
         <v>327</v>
@@ -2831,68 +2825,68 @@
       <c r="C113" t="s">
         <v>326</v>
       </c>
-      <c r="D113" t="s">
-        <v>328</v>
-      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C114" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B115" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C115" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B117" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C117" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B118" t="s">
-        <v>338</v>
-      </c>
-      <c r="C118" t="s">
-        <v>337</v>
+        <v>62</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2905,22 +2899,22 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
+      <c r="A120" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B120" t="s">
+        <v>338</v>
+      </c>
+      <c r="C120" t="s">
+        <v>337</v>
       </c>
       <c r="D120" t="s">
-        <v>155</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>339</v>
+      <c r="A121" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B121" t="s">
         <v>341</v>
@@ -2928,41 +2922,27 @@
       <c r="C121" t="s">
         <v>340</v>
       </c>
-      <c r="D121" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B122" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C122" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C123" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B124" t="s">
-        <v>348</v>
-      </c>
-      <c r="C124" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/longitude - latitude/newtonuv_mozek-toponyma.xlsx
+++ b/longitude - latitude/newtonuv_mozek-toponyma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\korpus_prozy\korpusprozy\longitude - latitude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84397AEE-84A8-4CF3-A6C4-A770595735F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED91C9CC-8FFE-442F-B7B4-8B72DF6B2EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="168" windowWidth="6744" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -940,18 +940,6 @@
     <t>14.937053</t>
   </si>
   <si>
-    <t>51.117532</t>
-  </si>
-  <si>
-    <t>15.292225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lubna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">možná město Lubáň? V textu je tento název města tak, jak je v kolonce nalevo a informace, že se má nacházet v oblasti Horní Lužice; taktéž mělo být dobyto husity </t>
-  </si>
-  <si>
     <t>48.603333</t>
   </si>
   <si>
@@ -1094,6 +1082,18 @@
   </si>
   <si>
     <t>36.4590244</t>
+  </si>
+  <si>
+    <t>53.483333</t>
+  </si>
+  <si>
+    <t>myšlena bitva u Grunwaldu, kde je jezero Lubno</t>
+  </si>
+  <si>
+    <t>Lubno</t>
+  </si>
+  <si>
+    <t>20.094444</t>
   </si>
 </sst>
 </file>
@@ -1478,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1647,7 +1647,7 @@
         <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1658,7 +1658,7 @@
         <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1876,16 +1876,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B34" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C34" t="s">
         <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2278,24 +2278,24 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B67" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C67" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B68" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2714,16 +2714,16 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="B105" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="C105" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="D105" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2731,13 +2731,13 @@
         <v>71</v>
       </c>
       <c r="B106" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C106" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D106" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2759,10 +2759,10 @@
         <v>70</v>
       </c>
       <c r="B108" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C108" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2770,24 +2770,24 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C109" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D109" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B110" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C110" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2795,10 +2795,10 @@
         <v>69</v>
       </c>
       <c r="B111" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C111" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2806,13 +2806,13 @@
         <v>68</v>
       </c>
       <c r="B112" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C112" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D112" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2820,10 +2820,10 @@
         <v>67</v>
       </c>
       <c r="B113" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C113" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2831,10 +2831,10 @@
         <v>66</v>
       </c>
       <c r="B114" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C114" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2842,10 +2842,10 @@
         <v>65</v>
       </c>
       <c r="B115" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C115" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2853,10 +2853,10 @@
         <v>64</v>
       </c>
       <c r="B116" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C116" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2864,10 +2864,10 @@
         <v>63</v>
       </c>
       <c r="B117" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C117" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2900,16 +2900,16 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B120" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C120" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D120" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2917,10 +2917,10 @@
         <v>60</v>
       </c>
       <c r="B121" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C121" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2928,10 +2928,10 @@
         <v>59</v>
       </c>
       <c r="B122" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C122" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2939,10 +2939,10 @@
         <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C123" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/longitude - latitude/newtonuv_mozek-toponyma.xlsx
+++ b/longitude - latitude/newtonuv_mozek-toponyma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\korpus_prozy\korpusprozy\longitude - latitude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED91C9CC-8FFE-442F-B7B4-8B72DF6B2EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF89A29-8164-44DB-900C-A30E7C200F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="168" windowWidth="6744" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="359">
   <si>
     <t>longitude</t>
   </si>
@@ -1094,6 +1094,9 @@
   </si>
   <si>
     <t>20.094444</t>
+  </si>
+  <si>
+    <t>15.7385453</t>
   </si>
 </sst>
 </file>
@@ -1478,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="C107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2759,7 +2762,7 @@
         <v>70</v>
       </c>
       <c r="B108" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="C108" t="s">
         <v>310</v>
